--- a/Pilot_1/Rearrange_datasets/Part3_text.xlsx
+++ b/Pilot_1/Rearrange_datasets/Part3_text.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Municipal council</t>
+          <t>Municipal council:</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Political parties: </t>
+          <t>Political parties:</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="BD23" t="n">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AL36" t="n">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AN36" t="n">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AP36" t="n">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AR36" t="n">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AT36" t="n">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AV36" t="n">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AN61" t="n">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AL104" t="n">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="AM104" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AN104" t="n">
@@ -23572,7 +23572,7 @@
       </c>
       <c r="AO104" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AP104" t="n">
@@ -23580,7 +23580,7 @@
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AR104" t="n">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="AS104" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AT104" t="n">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="AU104" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AV104" t="n">
@@ -24454,7 +24454,7 @@
       </c>
       <c r="AK108" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AL108" t="n">
@@ -24462,7 +24462,7 @@
       </c>
       <c r="AM108" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AN108" t="n">
@@ -24470,7 +24470,7 @@
       </c>
       <c r="AO108" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AP108" t="n">
@@ -24478,7 +24478,7 @@
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AR108" t="n">
@@ -24486,7 +24486,7 @@
       </c>
       <c r="AS108" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AT108" t="n">
@@ -24494,7 +24494,7 @@
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AV108" t="n">
@@ -25382,7 +25382,7 @@
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AV112" t="n">
@@ -38879,7 +38879,7 @@
       </c>
       <c r="AM173" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AN173" t="n">
@@ -38893,7 +38893,7 @@
       </c>
       <c r="AQ173" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AR173" t="n">
@@ -38901,7 +38901,7 @@
       </c>
       <c r="AS173" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AT173" t="n">
@@ -38909,7 +38909,7 @@
       </c>
       <c r="AU173" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AV173" t="n">
@@ -42206,7 +42206,7 @@
       </c>
       <c r="AK188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AL188" t="n">
@@ -42214,7 +42214,7 @@
       </c>
       <c r="AM188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AN188" t="n">
@@ -42222,7 +42222,7 @@
       </c>
       <c r="AO188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AP188" t="n">
@@ -42230,7 +42230,7 @@
       </c>
       <c r="AQ188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AR188" t="n">
@@ -42238,7 +42238,7 @@
       </c>
       <c r="AS188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AT188" t="n">
@@ -42246,7 +42246,7 @@
       </c>
       <c r="AU188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AV188" t="n">
@@ -42262,7 +42262,7 @@
       </c>
       <c r="AY188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AZ188" t="n">
@@ -42270,7 +42270,7 @@
       </c>
       <c r="BA188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="BB188" t="n">
@@ -42278,7 +42278,7 @@
       </c>
       <c r="BC188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="BD188" t="n">
@@ -42286,7 +42286,7 @@
       </c>
       <c r="BE188" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="BF188" t="inlineStr">
@@ -54198,7 +54198,7 @@
       </c>
       <c r="AS242" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AT242" t="n">
@@ -55100,7 +55100,7 @@
       </c>
       <c r="AY246" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AZ246" t="n">
@@ -57933,7 +57933,7 @@
       </c>
       <c r="AK259" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AL259" t="n">
@@ -57941,7 +57941,7 @@
       </c>
       <c r="AM259" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AN259" t="n">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="AO259" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AP259" t="n">
@@ -57957,7 +57957,7 @@
       </c>
       <c r="AQ259" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AR259" t="n">
@@ -57965,7 +57965,7 @@
       </c>
       <c r="AS259" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AT259" t="n">
@@ -57973,7 +57973,7 @@
       </c>
       <c r="AU259" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AV259" t="n">
@@ -58793,7 +58793,7 @@
       </c>
       <c r="AK263" t="inlineStr">
         <is>
-          <t>I prefer to not answer</t>
+          <t>I prefer not to answer</t>
         </is>
       </c>
       <c r="AL263" t="n">
